--- a/참고자료/매입매출데이터-원본.xlsx
+++ b/참고자료/매입매출데이터-원본.xlsx
@@ -39812,7 +39812,7 @@
         <v>500</v>
       </c>
       <c r="J258" s="7">
-        <f t="shared" ref="J258:J321" si="8">I258*H258</f>
+        <f t="shared" ref="J258:J260" si="8">I258*H258</f>
         <v>38500</v>
       </c>
     </row>
@@ -50122,7 +50122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
